--- a/ProyectoCoderFinal/media/Casos de prueba.xlsx
+++ b/ProyectoCoderFinal/media/Casos de prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\curso_python\ProyectoFinal\ProyectoCoderFinal\media\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30A2D9EA-02B7-418F-913E-8594BBBE0193}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFBBA1CC-77FE-4A46-9136-441C6DB6D01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="37">
   <si>
     <t>Nombre del proyecto:</t>
   </si>
@@ -109,9 +109,6 @@
     <t xml:space="preserve">Impide que los usuarios puedan ver informacion sobre la arquitectura de la plataforma. </t>
   </si>
   <si>
-    <t xml:space="preserve">Verificar que usuarios que no esten logueados puedan acceder a la funcionalidad de eliminar tareas. </t>
-  </si>
-  <si>
     <t>Archivo Views.py delete_task</t>
   </si>
   <si>
@@ -130,10 +127,10 @@
     <t xml:space="preserve">Se compruba la posibildad de eliminar la tarea por el propio usuario desde la aplicación, luego de las modificaciones. </t>
   </si>
   <si>
-    <t>Caso #4</t>
-  </si>
-  <si>
     <t>ok</t>
+  </si>
+  <si>
+    <t>Se comprueba la correcta eliminacion de las tareas por los usuarios.</t>
   </si>
 </sst>
 </file>
@@ -248,7 +245,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -469,9 +466,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z1001"/>
+  <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -505,7 +502,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>3</v>
@@ -576,19 +573,19 @@
         <v>23</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D7" s="8">
         <v>45199</v>
       </c>
       <c r="E7" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>31</v>
-      </c>
       <c r="G7" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
@@ -612,23 +609,25 @@
     </row>
     <row r="8" spans="1:26" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="C8" s="11" t="s">
         <v>34</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>35</v>
       </c>
       <c r="D8" s="8">
         <v>45199</v>
       </c>
       <c r="E8" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="F8" s="12"/>
+        <v>29</v>
+      </c>
+      <c r="F8" s="12" t="s">
+        <v>36</v>
+      </c>
       <c r="G8" s="14" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="H8" s="10"/>
       <c r="I8" s="10"/>
@@ -692,43 +691,10 @@
       <c r="Y9" s="10"/>
       <c r="Z9" s="10"/>
     </row>
-    <row r="10" spans="1:26" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>36</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="8">
-        <v>45199</v>
-      </c>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
+    <row r="10" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13"/>
     </row>
-    <row r="11" spans="1:26" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="13"/>
-    </row>
+    <row r="21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="24" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1708,7 +1674,6 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="1001" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait"/>
